--- a/Excel-XLSX/UN-MCD.xlsx
+++ b/Excel-XLSX/UN-MCD.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7zp6GU</t>
+    <t>d7I20y</t>
   </si>
   <si>
     <t>1992</t>
@@ -1401,6 +1401,15 @@
     <t>223</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
     <t>224</t>
   </si>
   <si>
@@ -1422,16 +1431,7 @@
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>19187</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>20741</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1816,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V231"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16869,16 +16869,16 @@
         <v>458</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>29</v>
@@ -16896,7 +16896,7 @@
         <v>34</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P222" s="2" t="s">
         <v>34</v>
@@ -16911,7 +16911,7 @@
         <v>34</v>
       </c>
       <c r="T222" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="U222" s="1" t="s">
         <v>35</v>
@@ -16937,16 +16937,16 @@
         <v>458</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>392</v>
+        <v>235</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>393</v>
+        <v>236</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>394</v>
+        <v>237</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>29</v>
@@ -16961,10 +16961,10 @@
         <v>32</v>
       </c>
       <c r="N223" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O223" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O223" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P223" s="2" t="s">
         <v>34</v>
@@ -17005,16 +17005,16 @@
         <v>458</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>214</v>
+        <v>463</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>29</v>
@@ -17067,22 +17067,22 @@
         <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>217</v>
+        <v>392</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>29</v>
@@ -17097,10 +17097,10 @@
         <v>32</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>34</v>
@@ -17135,7 +17135,7 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>458</v>
@@ -17183,7 +17183,7 @@
         <v>34</v>
       </c>
       <c r="T226" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="U226" s="1" t="s">
         <v>35</v>
@@ -17203,7 +17203,7 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>458</v>
@@ -17271,22 +17271,22 @@
         <v>22</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>29</v>
@@ -17301,10 +17301,10 @@
         <v>32</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>34</v>
@@ -17339,22 +17339,22 @@
         <v>22</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>29</v>
@@ -17372,7 +17372,7 @@
         <v>34</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P229" s="2" t="s">
         <v>34</v>
@@ -17384,7 +17384,7 @@
         <v>34</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="T229" s="2" t="s">
         <v>34</v>
@@ -17407,22 +17407,22 @@
         <v>22</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>29</v>
@@ -17437,10 +17437,10 @@
         <v>32</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="P230" s="2" t="s">
         <v>34</v>
@@ -17455,7 +17455,7 @@
         <v>34</v>
       </c>
       <c r="T230" s="2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="U230" s="1" t="s">
         <v>35</v>
@@ -17475,22 +17475,22 @@
         <v>22</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>458</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>117</v>
+        <v>441</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>118</v>
+        <v>442</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>119</v>
+        <v>442</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>29</v>
@@ -17505,7 +17505,7 @@
         <v>32</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="O231" s="2" t="s">
         <v>34</v>
@@ -17520,7 +17520,7 @@
         <v>34</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="T231" s="2" t="s">
         <v>34</v>
@@ -17529,142 +17529,6 @@
         <v>35</v>
       </c>
       <c r="V231" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K232" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T232" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U232" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V232" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K233" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N233" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="O233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T233" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U233" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V233" s="2" t="s">
         <v>34</v>
       </c>
     </row>
